--- a/biology/Écologie/Espèce_rare/Espèce_rare.xlsx
+++ b/biology/Écologie/Espèce_rare/Espèce_rare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_rare</t>
+          <t>Espèce_rare</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une espèce rare est une espèce dont le nombre d'individus est très bas. Cette désignation peut être appliquée à un taxon végétal ou animal et est distincte du terme en danger, en voie de disparition ou menacé. La désignation d'une espèce rare peut être faite par un organisme officiel, tel qu'un gouvernement national ou une région. Le terme apparaît le plus souvent sans référence à des critères spécifiques. L'UICN n'effectue normalement pas de telles désignations, mais peut utiliser ce terme dans le cadre de discussions scientifiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_rare</t>
+          <t>Espèce_rare</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces rares sont des espèces à petites populations, généralement moins de 10 000 individus. Les espèces rares sont souvent considérées comme menacées car les critères de la liste rouge de l'UICN comportent des indicateurs d'effectifs[1],[2],[3]. Une population de petite taille a moins de chances de se remettre de catastrophes écologiques, à cause de l'effet de goulet d'étranglement : perte de diversité génétique, consanguinité. La petite taille d'une aire de répartition endémique ou un habitat fragmenté influence également sur la désignation[4],[5]. Près de 75% des espèces connues peuvent être classées comme rares[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces rares sont des espèces à petites populations, généralement moins de 10 000 individus. Les espèces rares sont souvent considérées comme menacées car les critères de la liste rouge de l'UICN comportent des indicateurs d'effectifs. Une population de petite taille a moins de chances de se remettre de catastrophes écologiques, à cause de l'effet de goulet d'étranglement : perte de diversité génétique, consanguinité. La petite taille d'une aire de répartition endémique ou un habitat fragmenté influence également sur la désignation,. Près de 75% des espèces connues peuvent être classées comme rares.
 Une espèce peut être menacée ou vulnérable, mais ne pas être considérée comme rare si elle a une population importante et dispersée. 
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ce_rare</t>
+          <t>Espèce_rare</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
